--- a/parts.xlsx
+++ b/parts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="687">
   <si>
     <t>Партномер запчасти</t>
   </si>
@@ -1502,6 +1502,576 @@
   </si>
   <si>
     <t>Рулевой наконечник правый</t>
+  </si>
+  <si>
+    <t>F01-2803505NA</t>
+  </si>
+  <si>
+    <t>Jetour</t>
+  </si>
+  <si>
+    <t>X70</t>
+  </si>
+  <si>
+    <t>F01-2803507NA</t>
+  </si>
+  <si>
+    <t>Нижняя отделка переднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2803509NA</t>
+  </si>
+  <si>
+    <t>Заглушка решетки радиатора</t>
+  </si>
+  <si>
+    <t>F01-2803511NA</t>
+  </si>
+  <si>
+    <t>Усилитель переднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2803512NA</t>
+  </si>
+  <si>
+    <t>Кронштейн крепления переднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2803543</t>
+  </si>
+  <si>
+    <t>Декоративная накладка бампера</t>
+  </si>
+  <si>
+    <t>F01-2803542</t>
+  </si>
+  <si>
+    <t>F01-2803541</t>
+  </si>
+  <si>
+    <t>F01-2803535NA</t>
+  </si>
+  <si>
+    <t>Кронштейн бампера</t>
+  </si>
+  <si>
+    <t>F01-2803533</t>
+  </si>
+  <si>
+    <t>F01-2803534</t>
+  </si>
+  <si>
+    <t>F01-2804501NB</t>
+  </si>
+  <si>
+    <t>Усилитель заднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2804507NA</t>
+  </si>
+  <si>
+    <t>Заглушка заднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2804505NA</t>
+  </si>
+  <si>
+    <t>Декоративная накладка заднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2804506NA</t>
+  </si>
+  <si>
+    <t>F01-2804523NA</t>
+  </si>
+  <si>
+    <t>Кронштейн заднего бампера</t>
+  </si>
+  <si>
+    <t>F01-2804524NA</t>
+  </si>
+  <si>
+    <t>F01-2804503NA-DQ</t>
+  </si>
+  <si>
+    <t>F01-2804530</t>
+  </si>
+  <si>
+    <t>F01-2804540</t>
+  </si>
+  <si>
+    <t>F01-2804521NA</t>
+  </si>
+  <si>
+    <t>F01-2804522NA</t>
+  </si>
+  <si>
+    <t>F01-2804515NA</t>
+  </si>
+  <si>
+    <t>F01-2804516NA</t>
+  </si>
+  <si>
+    <t>F01-8402010BE</t>
+  </si>
+  <si>
+    <t>Капот</t>
+  </si>
+  <si>
+    <t>Капоты</t>
+  </si>
+  <si>
+    <t>F01-6101010</t>
+  </si>
+  <si>
+    <t>Передняя дверь в сборе (левая)</t>
+  </si>
+  <si>
+    <t>Двери</t>
+  </si>
+  <si>
+    <t>F01-6101020</t>
+  </si>
+  <si>
+    <t>Передняя дверь в сборе (правая)</t>
+  </si>
+  <si>
+    <t>F01-6201010</t>
+  </si>
+  <si>
+    <t>Задняя дверь в сборе (левая)</t>
+  </si>
+  <si>
+    <t>F01-6201020</t>
+  </si>
+  <si>
+    <t>Задняя дверь в сборе (правая)</t>
+  </si>
+  <si>
+    <t>F01-6301010</t>
+  </si>
+  <si>
+    <t>Крышка багажника</t>
+  </si>
+  <si>
+    <t>Крышки багажника</t>
+  </si>
+  <si>
+    <t>F01-8402030</t>
+  </si>
+  <si>
+    <t>Переднее крыло левое</t>
+  </si>
+  <si>
+    <t>F01-8402040</t>
+  </si>
+  <si>
+    <t>Переднее крыло правое</t>
+  </si>
+  <si>
+    <t>F01-8403102</t>
+  </si>
+  <si>
+    <t>Усилитель крыла</t>
+  </si>
+  <si>
+    <t>Усилители</t>
+  </si>
+  <si>
+    <t>F01-8403101-DY</t>
+  </si>
+  <si>
+    <t>F01-5500110NA</t>
+  </si>
+  <si>
+    <t>Панель передка</t>
+  </si>
+  <si>
+    <t>Панели</t>
+  </si>
+  <si>
+    <t>F01-5500120NA</t>
+  </si>
+  <si>
+    <t>Панель задка</t>
+  </si>
+  <si>
+    <t>F01-1001110</t>
+  </si>
+  <si>
+    <t>Масляный фильтр</t>
+  </si>
+  <si>
+    <t>F01-1001310</t>
+  </si>
+  <si>
+    <t>Фильтр воздушный</t>
+  </si>
+  <si>
+    <t>F01-1001710BA</t>
+  </si>
+  <si>
+    <t>Фильтр салона</t>
+  </si>
+  <si>
+    <t>F01-1001720</t>
+  </si>
+  <si>
+    <t>Фильтр топливный</t>
+  </si>
+  <si>
+    <t>F01-2803531</t>
+  </si>
+  <si>
+    <t>Кронштейн решетки радиатора</t>
+  </si>
+  <si>
+    <t>F01-2803532</t>
+  </si>
+  <si>
+    <t>F01-2909010</t>
+  </si>
+  <si>
+    <t>Амортизатор передней подвески левый</t>
+  </si>
+  <si>
+    <t>F01-2909020</t>
+  </si>
+  <si>
+    <t>Амортизатор передней подвески правый</t>
+  </si>
+  <si>
+    <t>F01-2901011</t>
+  </si>
+  <si>
+    <t>Стойка стабилизатора</t>
+  </si>
+  <si>
+    <t>F01-2905020</t>
+  </si>
+  <si>
+    <t>Поперечная рулевая тяга</t>
+  </si>
+  <si>
+    <t>202000637AA</t>
+  </si>
+  <si>
+    <t>Опора стойки стабилизатора</t>
+  </si>
+  <si>
+    <t>F08-2906010</t>
+  </si>
+  <si>
+    <t>F01-2810010</t>
+  </si>
+  <si>
+    <t>T11-2906030.</t>
+  </si>
+  <si>
+    <t>Сайлентблок стабилизатора</t>
+  </si>
+  <si>
+    <t>F01-3001011</t>
+  </si>
+  <si>
+    <t>F01-3001012</t>
+  </si>
+  <si>
+    <t>F01-3001075</t>
+  </si>
+  <si>
+    <t>Опора стойки</t>
+  </si>
+  <si>
+    <t>T11-3001030</t>
+  </si>
+  <si>
+    <t>Верхний рычаг подвески</t>
+  </si>
+  <si>
+    <t>F01-3001017</t>
+  </si>
+  <si>
+    <t>Пружина передней подвески</t>
+  </si>
+  <si>
+    <t>F01-3501080HY</t>
+  </si>
+  <si>
+    <t>Амортизатор передний</t>
+  </si>
+  <si>
+    <t>F01-2919310</t>
+  </si>
+  <si>
+    <t>Верхний рычаг задней подвески левый</t>
+  </si>
+  <si>
+    <t>F01-2919320</t>
+  </si>
+  <si>
+    <t>Верхний рычаг задней подвески правый</t>
+  </si>
+  <si>
+    <t>T15-2915010BA</t>
+  </si>
+  <si>
+    <t>Нижний рычаг задней подвески</t>
+  </si>
+  <si>
+    <t>F01-2919110</t>
+  </si>
+  <si>
+    <t>F08-2916010FL</t>
+  </si>
+  <si>
+    <t>Поперечная тяга</t>
+  </si>
+  <si>
+    <t>M11-2919410</t>
+  </si>
+  <si>
+    <t>Втулка стабилизатора</t>
+  </si>
+  <si>
+    <t>M11-2919420</t>
+  </si>
+  <si>
+    <t>M11-2919210</t>
+  </si>
+  <si>
+    <t>Сайлентблок рычага</t>
+  </si>
+  <si>
+    <t>F01-3301010</t>
+  </si>
+  <si>
+    <t>Передний тормозной диск</t>
+  </si>
+  <si>
+    <t>Тормозная система</t>
+  </si>
+  <si>
+    <t>F01-3502075</t>
+  </si>
+  <si>
+    <t>Амортизатор задний</t>
+  </si>
+  <si>
+    <t>F01-3301210</t>
+  </si>
+  <si>
+    <t>Задний тормозной диск</t>
+  </si>
+  <si>
+    <t>F01-3301011</t>
+  </si>
+  <si>
+    <t>Передние тормозные колодки</t>
+  </si>
+  <si>
+    <t>F01-3301012</t>
+  </si>
+  <si>
+    <t>F01-3502080</t>
+  </si>
+  <si>
+    <t>Опора стойки задней подвески</t>
+  </si>
+  <si>
+    <t>F01-3401010EP</t>
+  </si>
+  <si>
+    <t>Ступица колеса передняя</t>
+  </si>
+  <si>
+    <t>F01-3401430</t>
+  </si>
+  <si>
+    <t>Ступица колеса задняя</t>
+  </si>
+  <si>
+    <t>F01-3401330</t>
+  </si>
+  <si>
+    <t>Подшипник задней ступицы</t>
+  </si>
+  <si>
+    <t>F01-5500130NA</t>
+  </si>
+  <si>
+    <t>Брызговик передний левый</t>
+  </si>
+  <si>
+    <t>F01-5500140NA</t>
+  </si>
+  <si>
+    <t>Брызговик передний правый</t>
+  </si>
+  <si>
+    <t>F01-5500150NA</t>
+  </si>
+  <si>
+    <t>Брызговик задний левый</t>
+  </si>
+  <si>
+    <t>F01-5500160NA</t>
+  </si>
+  <si>
+    <t>Брызговик задний правый</t>
+  </si>
+  <si>
+    <t>F01-5500170NA</t>
+  </si>
+  <si>
+    <t>Защита двигателя</t>
+  </si>
+  <si>
+    <t>F01-5500180NA</t>
+  </si>
+  <si>
+    <t>Пыльник двигателя</t>
+  </si>
+  <si>
+    <t>F01-3102010NA</t>
+  </si>
+  <si>
+    <t>Тяга передней подвески левая</t>
+  </si>
+  <si>
+    <t>F01-3102020NA</t>
+  </si>
+  <si>
+    <t>Тяга передней подвески правая</t>
+  </si>
+  <si>
+    <t>F01-3102030NA</t>
+  </si>
+  <si>
+    <t>Тяга задней подвески левая</t>
+  </si>
+  <si>
+    <t>F01-3102040NA</t>
+  </si>
+  <si>
+    <t>Тяга задней подвески правая</t>
+  </si>
+  <si>
+    <t>K09-1301110</t>
+  </si>
+  <si>
+    <t>Впускной коллектор</t>
+  </si>
+  <si>
+    <t>K09-1301110BA</t>
+  </si>
+  <si>
+    <t>Впускной коллектор (модификация)</t>
+  </si>
+  <si>
+    <t>F01-8105010BA</t>
+  </si>
+  <si>
+    <t>Радиатор кондиционера</t>
+  </si>
+  <si>
+    <t>K09-1308010</t>
+  </si>
+  <si>
+    <t>Датчик температуры впуска</t>
+  </si>
+  <si>
+    <t>F01-2803700BB</t>
+  </si>
+  <si>
+    <t>Кронштейн крепления радиатора</t>
+  </si>
+  <si>
+    <t>F01-2804700-DY</t>
+  </si>
+  <si>
+    <t>Кронштейн крепления кондиционера</t>
+  </si>
+  <si>
+    <t>F01-5300500</t>
+  </si>
+  <si>
+    <t>Передняя рама радиатора</t>
+  </si>
+  <si>
+    <t>F01-5300770</t>
+  </si>
+  <si>
+    <t>F01-5300780</t>
+  </si>
+  <si>
+    <t>Шаровая опора задняя</t>
+  </si>
+  <si>
+    <t>F01-4421010</t>
+  </si>
+  <si>
+    <t>Вал привода передний левый</t>
+  </si>
+  <si>
+    <t>F01-4421020</t>
+  </si>
+  <si>
+    <t>Вал привода передний правый</t>
+  </si>
+  <si>
+    <t>F01-4499010</t>
+  </si>
+  <si>
+    <t>Полуось заднего моста левая</t>
+  </si>
+  <si>
+    <t>F01-4499020</t>
+  </si>
+  <si>
+    <t>Полуось заднего моста правая</t>
+  </si>
+  <si>
+    <t>F01-4433010</t>
+  </si>
+  <si>
+    <t>Шрус внутренний левый</t>
+  </si>
+  <si>
+    <t>F01-4433020</t>
+  </si>
+  <si>
+    <t>Шрус внутренний правый</t>
+  </si>
+  <si>
+    <t>F01-4433030</t>
+  </si>
+  <si>
+    <t>Шрус наружный левый</t>
+  </si>
+  <si>
+    <t>F01-4433040</t>
+  </si>
+  <si>
+    <t>Шрус наружный правый</t>
+  </si>
+  <si>
+    <t>J60-4435010ML</t>
+  </si>
+  <si>
+    <t>Подшипник ступицы</t>
+  </si>
+  <si>
+    <t>F01-4435020</t>
+  </si>
+  <si>
+    <t>Пыльник шруса</t>
+  </si>
+  <si>
+    <t>F01-4435010</t>
+  </si>
+  <si>
+    <t>Ступица заднего колеса</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +2360,7 @@
     <col customWidth="1" min="3" max="3" width="23.86"/>
     <col customWidth="1" min="4" max="4" width="43.43"/>
     <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
+    <col customWidth="1" min="6" max="6" width="21.29"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="10.57"/>
     <col customWidth="1" min="9" max="26" width="8.71"/>
@@ -9638,109 +10208,2993 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M271" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M272" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M273" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M274" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M275" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M276" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M277" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M278" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M279" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M280" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M281" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M282" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M283" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M284" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M285" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M286" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M287" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M288" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M289" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M290" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M291" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M292" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M293" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M294" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M295" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M296" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M297" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M298" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M299" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M300" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M301" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M302" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M303" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M304" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M305" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M306" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M307" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M308" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M309" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M310" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M311" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M312" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M313" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M314" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M315" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M316" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M317" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M318" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M319" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M320" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M321" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H322" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M322" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M323" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M324" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M325" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M326" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J327" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M327" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M328" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M329" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M330" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M331" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M332" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J333" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M333" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M334" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M335" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M336" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M337" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M338" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J339" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M339" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M340" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M341" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M342" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M343" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M344" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M345" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M346" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M347" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M348" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M349" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M350" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M351" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M352" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M353" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M354" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J355" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M355" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M356" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M357" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J358" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M358" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J359" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M359" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M360" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J361" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M361" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M362" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M363" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M364" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J365" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M365" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M366" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J367" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M367" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M368" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M369" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M370" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M371" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M372" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M373" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="374" ht="15.75" customHeight="1"/>
     <row r="375" ht="15.75" customHeight="1"/>
     <row r="376" ht="15.75" customHeight="1"/>

--- a/parts.xlsx
+++ b/parts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="686">
   <si>
     <t>Партномер запчасти</t>
   </si>
@@ -1652,9 +1652,6 @@
   </si>
   <si>
     <t>Крышка багажника</t>
-  </si>
-  <si>
-    <t>Крышки багажника</t>
   </si>
   <si>
     <t>F01-8402030</t>
@@ -11065,8 +11062,8 @@
       <c r="E300" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>547</v>
+      <c r="F300" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>19</v>
@@ -11080,7 +11077,7 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>498</v>
@@ -11089,7 +11086,7 @@
         <v>499</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>17</v>
@@ -11109,7 +11106,7 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>498</v>
@@ -11118,7 +11115,7 @@
         <v>499</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>17</v>
@@ -11138,7 +11135,7 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>498</v>
@@ -11147,13 +11144,13 @@
         <v>499</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>19</v>
@@ -11167,7 +11164,7 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>498</v>
@@ -11176,13 +11173,13 @@
         <v>499</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>19</v>
@@ -11196,7 +11193,7 @@
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>498</v>
@@ -11205,13 +11202,13 @@
         <v>499</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>19</v>
@@ -11225,7 +11222,7 @@
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>498</v>
@@ -11234,13 +11231,13 @@
         <v>499</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>19</v>
@@ -11254,7 +11251,7 @@
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>498</v>
@@ -11263,7 +11260,7 @@
         <v>499</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>353</v>
@@ -11283,7 +11280,7 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>498</v>
@@ -11292,7 +11289,7 @@
         <v>499</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>353</v>
@@ -11312,7 +11309,7 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>498</v>
@@ -11321,7 +11318,7 @@
         <v>499</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>353</v>
@@ -11341,7 +11338,7 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>498</v>
@@ -11350,7 +11347,7 @@
         <v>499</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>353</v>
@@ -11370,7 +11367,7 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>498</v>
@@ -11379,7 +11376,7 @@
         <v>499</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>366</v>
@@ -11399,7 +11396,7 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>498</v>
@@ -11408,7 +11405,7 @@
         <v>499</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>366</v>
@@ -11428,7 +11425,7 @@
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>498</v>
@@ -11437,7 +11434,7 @@
         <v>499</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>366</v>
@@ -11457,7 +11454,7 @@
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>498</v>
@@ -11466,7 +11463,7 @@
         <v>499</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>366</v>
@@ -11486,7 +11483,7 @@
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>498</v>
@@ -11495,7 +11492,7 @@
         <v>499</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>366</v>
@@ -11515,7 +11512,7 @@
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>498</v>
@@ -11524,7 +11521,7 @@
         <v>499</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>366</v>
@@ -11544,7 +11541,7 @@
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>498</v>
@@ -11553,7 +11550,7 @@
         <v>499</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>366</v>
@@ -11573,7 +11570,7 @@
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>498</v>
@@ -11602,7 +11599,7 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>498</v>
@@ -11631,7 +11628,7 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>498</v>
@@ -11640,7 +11637,7 @@
         <v>499</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>366</v>
@@ -11660,7 +11657,7 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>498</v>
@@ -11689,7 +11686,7 @@
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>498</v>
@@ -11718,7 +11715,7 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>498</v>
@@ -11727,7 +11724,7 @@
         <v>499</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>366</v>
@@ -11747,7 +11744,7 @@
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>498</v>
@@ -11756,7 +11753,7 @@
         <v>499</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>366</v>
@@ -11776,7 +11773,7 @@
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>498</v>
@@ -11785,7 +11782,7 @@
         <v>499</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>366</v>
@@ -11805,7 +11802,7 @@
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>498</v>
@@ -11814,7 +11811,7 @@
         <v>499</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>366</v>
@@ -11834,7 +11831,7 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>498</v>
@@ -11843,7 +11840,7 @@
         <v>499</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>366</v>
@@ -11863,7 +11860,7 @@
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>498</v>
@@ -11872,7 +11869,7 @@
         <v>499</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>366</v>
@@ -11892,7 +11889,7 @@
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>498</v>
@@ -11901,7 +11898,7 @@
         <v>499</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>366</v>
@@ -11921,7 +11918,7 @@
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>498</v>
@@ -11930,7 +11927,7 @@
         <v>499</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>366</v>
@@ -11950,7 +11947,7 @@
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>498</v>
@@ -11959,7 +11956,7 @@
         <v>499</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>366</v>
@@ -11979,7 +11976,7 @@
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>498</v>
@@ -11988,7 +11985,7 @@
         <v>499</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>366</v>
@@ -12008,7 +12005,7 @@
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>498</v>
@@ -12017,7 +12014,7 @@
         <v>499</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>366</v>
@@ -12037,7 +12034,7 @@
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>498</v>
@@ -12046,7 +12043,7 @@
         <v>499</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>366</v>
@@ -12066,7 +12063,7 @@
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>498</v>
@@ -12075,13 +12072,13 @@
         <v>499</v>
       </c>
       <c r="D335" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F335" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>19</v>
@@ -12095,7 +12092,7 @@
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>498</v>
@@ -12104,7 +12101,7 @@
         <v>499</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>366</v>
@@ -12124,7 +12121,7 @@
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>498</v>
@@ -12133,13 +12130,13 @@
         <v>499</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>366</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>19</v>
@@ -12153,7 +12150,7 @@
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>498</v>
@@ -12162,7 +12159,7 @@
         <v>499</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>366</v>
@@ -12182,7 +12179,7 @@
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>498</v>
@@ -12191,7 +12188,7 @@
         <v>499</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>366</v>
@@ -12211,7 +12208,7 @@
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>498</v>
@@ -12220,7 +12217,7 @@
         <v>499</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>366</v>
@@ -12240,7 +12237,7 @@
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>498</v>
@@ -12249,7 +12246,7 @@
         <v>499</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>366</v>
@@ -12269,7 +12266,7 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>498</v>
@@ -12278,7 +12275,7 @@
         <v>499</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>366</v>
@@ -12298,7 +12295,7 @@
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>498</v>
@@ -12307,7 +12304,7 @@
         <v>499</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>366</v>
@@ -12327,7 +12324,7 @@
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>498</v>
@@ -12336,7 +12333,7 @@
         <v>499</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>366</v>
@@ -12356,7 +12353,7 @@
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>498</v>
@@ -12365,7 +12362,7 @@
         <v>499</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>366</v>
@@ -12385,7 +12382,7 @@
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>498</v>
@@ -12394,7 +12391,7 @@
         <v>499</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>366</v>
@@ -12414,7 +12411,7 @@
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>498</v>
@@ -12423,7 +12420,7 @@
         <v>499</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>366</v>
@@ -12443,7 +12440,7 @@
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>498</v>
@@ -12452,7 +12449,7 @@
         <v>499</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>366</v>
@@ -12472,7 +12469,7 @@
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>498</v>
@@ -12481,7 +12478,7 @@
         <v>499</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>366</v>
@@ -12501,7 +12498,7 @@
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>498</v>
@@ -12510,7 +12507,7 @@
         <v>499</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>366</v>
@@ -12530,7 +12527,7 @@
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>498</v>
@@ -12539,7 +12536,7 @@
         <v>499</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>366</v>
@@ -12559,7 +12556,7 @@
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>498</v>
@@ -12568,7 +12565,7 @@
         <v>499</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>366</v>
@@ -12588,7 +12585,7 @@
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>498</v>
@@ -12597,7 +12594,7 @@
         <v>499</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>366</v>
@@ -12617,7 +12614,7 @@
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>498</v>
@@ -12626,7 +12623,7 @@
         <v>499</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>366</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>498</v>
@@ -12655,7 +12652,7 @@
         <v>499</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>366</v>
@@ -12675,7 +12672,7 @@
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>498</v>
@@ -12684,7 +12681,7 @@
         <v>499</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>366</v>
@@ -12704,7 +12701,7 @@
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>498</v>
@@ -12713,7 +12710,7 @@
         <v>499</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>366</v>
@@ -12733,7 +12730,7 @@
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>498</v>
@@ -12742,7 +12739,7 @@
         <v>499</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>366</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>498</v>
@@ -12771,7 +12768,7 @@
         <v>499</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>366</v>
@@ -12791,7 +12788,7 @@
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>498</v>
@@ -12800,7 +12797,7 @@
         <v>499</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>366</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>498</v>
@@ -12849,7 +12846,7 @@
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>498</v>
@@ -12858,7 +12855,7 @@
         <v>499</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>366</v>
@@ -12878,7 +12875,7 @@
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>498</v>
@@ -12887,7 +12884,7 @@
         <v>499</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>366</v>
@@ -12907,7 +12904,7 @@
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>498</v>
@@ -12916,7 +12913,7 @@
         <v>499</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>366</v>
@@ -12936,7 +12933,7 @@
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>498</v>
@@ -12945,7 +12942,7 @@
         <v>499</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>366</v>
@@ -12965,7 +12962,7 @@
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>498</v>
@@ -12974,7 +12971,7 @@
         <v>499</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>366</v>
@@ -12994,7 +12991,7 @@
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>498</v>
@@ -13003,7 +13000,7 @@
         <v>499</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>366</v>
@@ -13023,7 +13020,7 @@
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>498</v>
@@ -13032,7 +13029,7 @@
         <v>499</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>366</v>
@@ -13052,7 +13049,7 @@
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>498</v>
@@ -13061,7 +13058,7 @@
         <v>499</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>366</v>
@@ -13081,7 +13078,7 @@
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>498</v>
@@ -13090,7 +13087,7 @@
         <v>499</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>366</v>
@@ -13110,7 +13107,7 @@
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>498</v>
@@ -13119,7 +13116,7 @@
         <v>499</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>366</v>
@@ -13139,7 +13136,7 @@
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>498</v>
@@ -13148,7 +13145,7 @@
         <v>499</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>366</v>
@@ -13168,7 +13165,7 @@
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>498</v>
@@ -13177,7 +13174,7 @@
         <v>499</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>366</v>
